--- a/06-junio/7_RAMIREZ/RAMIREZ.xlsx
+++ b/06-junio/7_RAMIREZ/RAMIREZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\7_RAMIREZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\7_RAMIREZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AD4CF-CAE2-4DF1-A0F7-0F5B3F21292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA71F80-D579-40D7-9FFC-94636D12E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="1695" windowWidth="25095" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -71,7 +71,7 @@
     <t>IBAÑEZ</t>
   </si>
   <si>
-    <t>MAYO 2025</t>
+    <t>JUNIO Y SAC 2025</t>
   </si>
 </sst>
 </file>
@@ -102,12 +102,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,18 +149,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,411 +533,441 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="15">
+        <v>35983.18</v>
+      </c>
+      <c r="F3" s="15">
+        <v>34539.29</v>
+      </c>
+      <c r="G3" s="15">
+        <f>+E3-F3</f>
+        <v>1443.8899999999994</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="15">
+        <v>1151309.75</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
-        <v>517001.96</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="7">
+        <v>551589.97</v>
+      </c>
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>67305.429999999993</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="7">
+        <v>48129.81</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f>+B5+C5</f>
-        <v>517001.96</v>
-      </c>
-      <c r="G5" s="6">
+        <v>551589.97</v>
+      </c>
+      <c r="G5" s="7">
         <f>+D5+E5</f>
-        <v>67305.429999999993</v>
-      </c>
-      <c r="H5" s="6">
+        <v>48129.81</v>
+      </c>
+      <c r="H5" s="7">
         <f>+B5+C5+D5+E5</f>
-        <v>584307.39</v>
-      </c>
-      <c r="I5" s="6">
+        <v>599719.78</v>
+      </c>
+      <c r="I5" s="7">
         <f>+H5*2</f>
-        <v>1168614.78</v>
+        <v>1199439.56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9">
         <f>SUM(B5:B6)</f>
-        <v>517001.96</v>
-      </c>
-      <c r="C7" s="7">
+        <v>551589.97</v>
+      </c>
+      <c r="C7" s="9">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <f>SUM(D5:D6)</f>
-        <v>67305.429999999993</v>
-      </c>
-      <c r="E7" s="7">
+        <v>48129.81</v>
+      </c>
+      <c r="E7" s="9">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <f>SUM(F5:F6)</f>
-        <v>517001.96</v>
-      </c>
-      <c r="G7" s="6">
+        <v>551589.97</v>
+      </c>
+      <c r="G7" s="7">
         <f>+D7+E7</f>
-        <v>67305.429999999993</v>
-      </c>
-      <c r="H7" s="7">
+        <v>48129.81</v>
+      </c>
+      <c r="H7" s="9">
         <f>SUM(H5:H6)</f>
-        <v>584307.39</v>
-      </c>
-      <c r="I7" s="7">
+        <v>599719.78</v>
+      </c>
+      <c r="I7" s="9">
         <f>SUM(I5:I6)</f>
-        <v>1168614.78</v>
+        <v>1199439.56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8">
-        <v>994525.18</v>
-      </c>
-      <c r="C10" s="8">
-        <v>956775.33</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1011282.58</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>1101309.3500000001</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8">
-        <v>24415.8</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
-        <f>+B10-B11</f>
-        <v>970109.38</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="15">
+        <v>52530.89</v>
+      </c>
+      <c r="F9" s="15">
+        <v>51808.95</v>
+      </c>
+      <c r="G9" s="15">
+        <f>+E9-F9</f>
+        <v>721.94000000000233</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="15">
+        <v>1726965.22</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>551589.97</v>
+      </c>
+      <c r="C11" s="12">
+        <v>275794.99</v>
+      </c>
+      <c r="D11" s="12">
+        <v>48129.891000000003</v>
+      </c>
+      <c r="E11" s="12">
+        <v>24065.41</v>
+      </c>
+      <c r="F11" s="12">
+        <f>+B11+C11</f>
+        <v>827384.96</v>
+      </c>
+      <c r="G11" s="12">
+        <f>+D11+E11</f>
+        <v>72195.301000000007</v>
+      </c>
+      <c r="H11" s="12">
+        <f>+B11+C11+D11+E11</f>
+        <v>899580.26100000006</v>
+      </c>
+      <c r="I11" s="12">
+        <f>+H11*2</f>
+        <v>1799160.5220000001</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14">
+        <f>SUM(B11:B12)</f>
+        <v>551589.97</v>
+      </c>
+      <c r="C13" s="14">
+        <f>SUM(C11:C12)</f>
+        <v>275794.99</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(D11:D12)</f>
+        <v>48129.891000000003</v>
+      </c>
+      <c r="E13" s="14">
+        <f>SUM(E11:E12)</f>
+        <v>24065.41</v>
+      </c>
+      <c r="F13" s="14">
+        <f>SUM(F11:F12)</f>
+        <v>827384.96</v>
+      </c>
+      <c r="G13" s="12">
+        <f>+D13+E13</f>
+        <v>72195.301000000007</v>
+      </c>
+      <c r="H13" s="14">
+        <f>SUM(H11:H12)</f>
+        <v>899580.26100000006</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SUM(I11:I12)</f>
+        <v>1799160.5220000001</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
-        <v>35058.42</v>
-      </c>
-      <c r="D15" s="8">
-        <v>33039.279999999999</v>
-      </c>
-      <c r="E15" s="8">
-        <f>+C15-D15</f>
-        <v>2019.1399999999994</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>518689.55</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8">
-        <v>787400.58</v>
-      </c>
-      <c r="D16" s="8">
-        <v>518689.5</v>
-      </c>
-      <c r="E16" s="8">
-        <f>+C16-D16</f>
-        <v>268711.07999999996</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>767399.71</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>124989.26</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8">
-        <v>767399.71</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>13748.82</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>15560.68</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8">
-        <v>124898.26</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>3746.95</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>22421.919999999998</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8">
-        <v>22421.919999999998</v>
-      </c>
-      <c r="D24" s="8">
-        <v>13748.82</v>
-      </c>
-      <c r="E24" s="8">
-        <f>+C24-D24</f>
-        <v>8673.0999999999985</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>15560.68</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <f>+A24-A25</f>
-        <v>6861.239999999998</v>
-      </c>
-      <c r="C26">
-        <v>15560.68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>507023.62</v>
-      </c>
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I7">
